--- a/Rex Karole Johannis genite; Leticie pacis concordie; Virgo prius ac posterius.xlsx
+++ b/Rex Karole Johannis genite; Leticie pacis concordie; Virgo prius ac posterius.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>multo</t>
+          <t>mortalis</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -491,27 +491,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pestis</t>
+          <t>facultas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jam</t>
+          <t>mos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>iners</t>
+          <t>hostilis</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,27 +521,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pax</t>
+          <t>inimicus</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gaudium</t>
+          <t>pestis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>felix</t>
+          <t>similis</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -551,39 +551,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>sonus</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>iners</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cura</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+          <t>pax</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>humano</t>
+          <t>gaudium</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -593,7 +601,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dulcis</t>
+          <t>nomen</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -603,7 +611,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fieri</t>
+          <t>dives</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -613,17 +621,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>incognitus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pacem</t>
+          <t>felix</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -633,51 +641,143 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>Total Average</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>Total Sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Total Sum</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sentiment Difference</t>
+          <t>salus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>humanus</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>claustra</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>dulcis</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pax</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hostis</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sentiment Difference</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.9166666666666666</v>
+      <c r="B34" t="n">
+        <v>0.09022556390977443</v>
       </c>
     </row>
   </sheetData>
